--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1397.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1397.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.487648052393346</v>
+        <v>1.186543703079224</v>
       </c>
       <c r="B1">
-        <v>2.479295167740161</v>
+        <v>2.14165735244751</v>
       </c>
       <c r="C1">
-        <v>2.890826866674433</v>
+        <v>6.27494478225708</v>
       </c>
       <c r="D1">
-        <v>3.33600654409866</v>
+        <v>2.304931879043579</v>
       </c>
       <c r="E1">
-        <v>1.613559848657482</v>
+        <v>1.195009827613831</v>
       </c>
     </row>
   </sheetData>
